--- a/biology/Botanique/Mouron_(flore)/Mouron_(flore).xlsx
+++ b/biology/Botanique/Mouron_(flore)/Mouron_(flore).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Mouron est un nom vernaculaire ambigu  en français. Ce nom est un emprunt au moyen néerlandais muer qui désigne une plante de la famille des Primulacées, le mouron rouge[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Mouron est un nom vernaculaire ambigu  en français. Ce nom est un emprunt au moyen néerlandais muer qui désigne une plante de la famille des Primulacées, le mouron rouge.
 Le terme de mouron est employé pour décrire diverses plantes. Elles ont en commun une petite taille et un port souvent prostré.
 Des Primulaceae avec le genre Lysimachia :
 Le mouron rouge ou mouron des champs, Lysimachia arvensis
@@ -524,7 +536,9 @@
           <t>Expressions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">"Se faire du mouron" : Une métaphore populaire signifiant "se faire du souci". Cette expression est à rapprocher de la physionomie de ce végétal, doté de poils blancs. Une personne en proie à des angoisses ou de fréquents désagréments peut quelquefois voir blanchir tout ou partie de ses cheveux.
 "ce n'est pas du mouron pour ton serin !" : expression populaire moqueuse, employée sur un ton dédaigneux pour signifier de "cesser de rêver". La personne intime l'ordre de stopper toutes tentatives, elle ne succombera pas aux avances que l'autre lui fait.
@@ -556,7 +570,9 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le calendrier républicain français, le 18e jour du mois de ventôse, est officiellement dénommé jour du mouron (généralement nos 8 mars grégoriens).
 </t>
